--- a/Azure Security Benchmark/2.0/azure-security-benchmark-v2.0.xlsx
+++ b/Azure Security Benchmark/2.0/azure-security-benchmark-v2.0.xlsx
@@ -3,19 +3,32 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEB19E8-261A-443D-8AE4-2241A809F144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC78CF2-5215-4BFA-9D29-18FFE7E73813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Azure Security Benchmark V2.0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Azure Security Benchmark V2.0'!$A$1:$I$69</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="376">
   <si>
     <t>Service</t>
   </si>
@@ -27,6 +40,9 @@
   </si>
   <si>
     <t>Benchmark Recommendation</t>
+  </si>
+  <si>
+    <t>Generic Guidance</t>
   </si>
   <si>
     <t>Responsibility</t>
@@ -92,7 +108,7 @@
 Services that support managed identities for Azure resources: https://docs.microsoft.com/azure/active-directory/managed-identities-azure-resources/services-support-managed-identities
 Azure service principal: https://docs.microsoft.com/powershell/azure/create-azure-service-principal-azureps
 Create a service principal with certificates: https://docs.microsoft.com/azure/active-directory/develop/howto-authenticate-service-principal-powershell
-Use Azure Key Vault for security principal registration: https://docs.microsoft.com/azure/key-vault/general/authentication#security-principal-registration</t>
+Use Azure Key Vault for security principal registration: authentication#authorize-a-security-principal-to-access-key-vault</t>
   </si>
   <si>
     <t>Identity and keys: https://docs.microsoft.com/azure/cloud-adoption-framework/organize/cloud-security-identity-keys
@@ -321,9 +337,6 @@
     <t>4.6, 11.6, 12.12</t>
   </si>
   <si>
-    <t>AC-2, SC-7</t>
-  </si>
-  <si>
     <t>Use highly secured machines for administrative tasks</t>
   </si>
   <si>
@@ -366,9 +379,6 @@
     <t>16</t>
   </si>
   <si>
-    <t>AC-2, AC-3, AC-4</t>
-  </si>
-  <si>
     <t>Choose approval process for Microsoft support</t>
   </si>
   <si>
@@ -418,7 +428,7 @@
     <t>Connect private networks together</t>
   </si>
   <si>
-    <t>Use Azure ExpressRoute or Azure virtual private network (VPN) to create private connections between Azure datacenters and on-premises infrastructure in a colocation environment . ExpressRoute connections do not go over the public internet , and they offer more reliability, faster speeds, and lower latencies than typical internet connections. For point-to-site VPN and site-to-site VPN, you can connect on-premises devices or networks to a virtual network using any combination of these VPN options and Azure ExpressRoute.
+    <t>Use Azure ExpressRoute or Azure virtual private network (VPN) to create private connections between Azure datacenters and on-premises infrastructure in a colocation environment. ExpressRoute connections do not go over the public internet , and they offer more reliability, faster speeds, and lower latencies than typical internet connections. For point-to-site VPN and site-to-site VPN, you can connect on-premises devices or networks to a virtual network using any combination of these VPN options and Azure ExpressRoute.
 To connect two or more virtual networks in Azure together, use virtual network peering. Network traffic between peered virtual networks is private and is kept on the Azure backbone network.
 What are the ExpressRoute connectivity models: https://docs.microsoft.com/azure/expressroute/expressroute-connectivity-models
 Azure VPN overview: https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpngateways
@@ -457,13 +467,13 @@
     <t>Protect applications and services from external network attacks</t>
   </si>
   <si>
-    <t>Protect azure resources against attacks from external networks, including distributed denial of service (DDoS) Attacks, application specific attacks, and unsolicited and potentially malicious internet traffic. Azure includes native capabilities for this:
+    <t>Protect Azure resources against attacks from external networks, including distributed denial of service (DDoS) Attacks, application specific attacks, and unsolicited and potentially malicious internet traffic. Azure includes native capabilities for this:
 - Use Azure Firewall to protect applications and services against potentially malicious traffic from the internet and other external locations.
 - Use Web Application Firewall (WAF) capabilities in Azure Application Gateway, Azure Front Door, and Azure Content Delivery Network (CDN) to protect your applications, services, and APIs against application layer attacks.
 - Protect your assets against DDoS attacks by enabling DDoS standard protection on your Azure virtual networks.
 Azure Firewall Documentation: https://docs.microsoft.com/azure/firewall/
 How to deploy Azure WAF: https://docs.microsoft.com/azure/web-application-firewall/overview
-Manage Azure DDoS Protection Standard using the Azure Portal: https://docs.microsoft.com/azure/virtual-network/manage-ddos-protection</t>
+Manage Azure DDoS Protection Standard using the Azure portal: https://docs.microsoft.com/azure/virtual-network/manage-ddos-protection</t>
   </si>
   <si>
     <t>Missing Customer Stakeholders</t>
@@ -639,7 +649,7 @@
 Azure provides encryption for data at rest by default. For highly sensitive data, you have options to implement additional encryption at rest on all Azure resources where available. Azure manages your encryption keys by default, but Azure provides options to manage your own keys (customer managed keys) for certain Azure services.
 Understand encryption at rest in Azure: https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest#encryption-at-rest-in-microsoft-cloud-services
 How to configure customer managed encryption keys: https://docs.microsoft.com/azure/storage/common/storage-encryption-keys-portal
-Encryption model and key management table: https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest#encryption-model-and-key-management-table
+Encryption model and key management table: https://docs.microsoft.com/azure/security/fundamentals/encryption-models
 Data at rest double encryption in Azure: https://docs.microsoft.com/azure/security/fundamentals/double-encryption#data-at-rest</t>
   </si>
   <si>
@@ -773,6 +783,13 @@
   </si>
   <si>
     <t>Configure log storage retention</t>
+  </si>
+  <si>
+    <t>Configure your log retention according to your compliance, regulation, and other requirements.
+In Azure Monitor, you can set your Log Analytics workspace retention period according to your organization's compliance regulations. Use Azure Storage, Data Lake or Log Analytics workspace accounts for long-term and archival storage.
+Change the data retention period in Log Analytics: https://docs.microsoft.com/azure/azure-monitor/platform/manage-cost-storage#change-the-data-retention-period
+How to configure retention policy for Azure Storage account logs: ttps://docs.microsoft.com/azure/storage/common/storage-monitor-storage-account#configure-logging
+Azure Security Center alerts and recommendations export: https://docs.microsoft.com/azure/security-center/continuous-export</t>
   </si>
   <si>
     <t>Security architecture: https://docs.microsoft.com/azure/cloud-adoption-framework/organize/cloud-security-architecture
@@ -1014,9 +1031,6 @@
     <t>1.1, 1.2, 1.3, 1.4, 9.1, 12.1</t>
   </si>
   <si>
-    <t>CM-7, CM-8, CM-11, PM-5</t>
-  </si>
-  <si>
     <t>Ensure security team has visibility into risks for assets</t>
   </si>
   <si>
@@ -1053,9 +1067,6 @@
   </si>
   <si>
     <t>2.3, 2.4</t>
-  </si>
-  <si>
-    <t>CM-7, CM-8</t>
   </si>
   <si>
     <t>Use only approved Azure services</t>
@@ -1390,7 +1401,7 @@
     <t>SC, AC</t>
   </si>
   <si>
-    <t>Define an asset management and protection strategy</t>
+    <t>Define asset management and protection strategy</t>
   </si>
   <si>
     <t>Ensure you document and communicate a clear strategy for continuous monitoring and protection of systems and data. Prioritize discovery, assessment, protection, and monitoring of business-critical data and systems.
@@ -1400,14 +1411,15 @@
 - Security organization approval of Azure services for use
 - Security of assets through their lifecycle
 - Required access control strategy in accordance with organizational data classification
-- Use of Azure native data protection capabilities in different Azure services
+- Use of Azure native and third party data protection capabilities
 - Data encryption requirements for in-transit and at-rest use cases
 - Appropriate cryptographic standards
+Note: Your asset management and protection approach for cloud and on-premises may be different depending on multiple factors, such as application service/hosting model, business risks, and compliance requirement.
 Azure Security Architecture Recommendation - Storage, data, and encryption: https://docs.microsoft.com/azure/architecture/framework/security/storage-data-encryption?toc=/security/compass/toc.json&amp;amp;bc=/security/compass/breadcrumb/toc.json
 Azure Security Fundamentals - Azure Data security, encryption, and storage: https://docs.microsoft.com/azure/security/fundamentals/encryption-overview
 Cloud Adoption Framework - Azure data security and encryption best practices: https://docs.microsoft.com/azure/security/fundamentals/data-encryption-best-practices?toc=/azure/cloud-adoption-framework/toc.json&amp;amp;bc=/azure/cloud-adoption-framework/_bread/toc.json
-Azure Security Benchmark-Asset management: https://docs.microsoft.com/azure/security/benchmarks/security-benchmark-v2-asset-management
-Azure Security Benchmark-Data protection: https://docs.microsoft.com/azure/security/benchmarks/security-benchmark-v2-data-protection</t>
+Azure Security Benchmark - Asset management: https://docs.microsoft.com/azure/security/benchmarks/security-benchmark-v2-asset-management
+Azure Security Benchmark - Data Drotection: https://docs.microsoft.com/azure/security/benchmarks/security-benchmark-v2-data-protection</t>
   </si>
   <si>
     <t>All stakeholders: https://docs.microsoft.com/azure/cloud-adoption-framework/organize/cloud-security#security-functions</t>
@@ -1422,11 +1434,11 @@
     <t>RA, CM, SC</t>
   </si>
   <si>
-    <t>Define a security posture management strategy</t>
+    <t>Define security posture management strategy</t>
   </si>
   <si>
     <t>Continuously measure and mitigate risks to your individual assets and the environment they are hosted in. Prioritize high value assets and highly-exposed attack surfaces, such as published applications, network ingress and egress points, user and administrator endpoints, etc.
-Azure Security Benchmark-Posture and vulnerability management: https://docs.microsoft.com/azure/security/benchmarks/security-benchmark-v2-posture-vulnerability-management</t>
+Azure Security Benchmark - Posture and vulnerability management: https://docs.microsoft.com/azure/security/benchmarks/security-benchmark-v2-posture-vulnerability-management</t>
   </si>
   <si>
     <t>GS-3</t>
@@ -1453,7 +1465,7 @@
     <t>CA, SC</t>
   </si>
   <si>
-    <t>Define a network security strategy</t>
+    <t>Define network security strategy</t>
   </si>
   <si>
     <t>Establish an Azure network security approach as part of your organization’s overall security access control strategy.
@@ -1464,8 +1476,9 @@
 - Internet edge and ingress and egress strategy
 - Hybrid cloud and on-premises interconnectivity strategy
 - Up-to-date network security artifacts (e.g. network diagrams, reference network architecture)
-Azure Security Best Practice 11-Architecture. Single unified security strategy: https://aka.ms/AzSec11
-Azure Security Benchmark-Network Security: https://docs.microsoft.com/azure/security/benchmarks/security-benchmark-v2-network-security
+Note: Your network security approach for cloud and on-premises may be different depending on multiple factors, such as application service model, threat exposure, and hybrid network setup.
+Azure Security Best Practice 11 - Architecture. Single unified security strategy: https://aka.ms/AzSec11
+Azure Security Benchmark - Network Security: https://docs.microsoft.com/azure/security/benchmarks/security-benchmark-v2-network-security
 Azure network security overview: https://docs.microsoft.com/azure/security/fundamentals/network-overview
 Enterprise network architecture strategy: https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/architecture</t>
   </si>
@@ -1488,11 +1501,11 @@
 - Strong authentication methods in different use cases and conditions
 - Protection of highly privileged users
 - Anomaly user activities monitoring and handling
-- User identity and access review and reconciliation  process
-- Vendor and partner access strategy
-Azure Security Benchmark-Identity management: https://docs.microsoft.com/azure/security/benchmarks/security-benchmark-v2-identity-management
-Azure Security Benchmark-Privileged access: https://docs.microsoft.com/azure/security/benchmarks/security-benchmark-v2-privileged-access
-Azure Security Best Practice 11-Architecture. Single unified security strategy: https://aka.ms/AzSec11
+- User identity and access review and reconciliation process
+Note: Your identity and privileged access approach for cloud and on-premises may be different depending on multiple factors, such as data/application access path, service model, and customer/partner access strategy.
+Azure Security Benchmark - Identity management: https://docs.microsoft.com/azure/security/benchmarks/security-benchmark-v2-identity-management
+Azure Security Benchmark - Privileged access: https://docs.microsoft.com/azure/security/benchmarks/security-benchmark-v2-privileged-access
+Azure Security Best Practice 11 - Architecture. Single unified security strategy: https://aka.ms/AzSec11
 Azure identity management security overview: https://docs.microsoft.com/azure/security/fundamentals/identity-management-overview</t>
   </si>
   <si>
@@ -1514,8 +1527,9 @@
 - Communication and notification plan with your customers, suppliers, and public parties of interest
 - Use of Azure native and third-party platforms for incident handling, such as logging and threat detection, forensics, and attack remediation and eradication
 - Processes for handling incidents and post-incident activities, such as lessons learned and evidence retention
-Azure Security Benchmark-Logging and threat detection: https://docs.microsoft.com/azure/security/benchmarks/security-benchmark-v2-logging-threat-detection
-Azure Security Benchmark-Incident response: https://docs.microsoft.com/azure/security/benchmarks/security-benchmark-v2-incident-response
+Note: Your logging and threat detection approach for cloud and on-premises may be different depending on multiple factors, such as compliance requirement, threat landscape, and detection and remediation capability.
+Azure Security Benchmark - Logging and threat detection: https://docs.microsoft.com/azure/security/benchmarks/security-benchmark-v2-logging-threat-detection
+Azure Security Benchmark - Incident response: https://docs.microsoft.com/azure/security/benchmarks/security-benchmark-v2-incident-response
 Azure Security Best Practice 4 - Process. Update Incident Response Processes for Cloud: https://aka.ms/AzSec11
 Azure Adoption Framework, logging, and reporting decision guide: https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/logging-and-reporting/
 Azure enterprise scale, management, and monitoring: https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/management-and-monitoring</t>
@@ -1533,14 +1547,15 @@
     <t>Define backup and recovery strategy</t>
   </si>
   <si>
-    <t>Establish an Azure data backup and recovery strategy for your organization.
+    <t>Establish an Azure backup and recovery strategy for your organization.
 This strategy should include documented guidance, policy, and standards for the following elements:
 - Recovery time objective (RTO) and recovery point objective (RPO) definitions in accordance with your business resiliency objectives
 - Redundancy design in your applications and infrastructure setup
 - Protection of backup using access control and data encryption
-Azure Security Benchmark-Backup and recovery: https://docs.microsoft.com/azure/security/benchmarks/security-benchmark-v2-backup-recovery
-Azure Well-Architecture Framework-Backup and disaster recover for Azure applications: https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery
-Azure Adoption Framework-business continuity and disaster recovery: https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
+Note: Your backup and recovery approach for cloud and on-premises may be different depending on the multiple factors, such as infrastructure redundancy, application service/hosting model, and compliance requirements.
+Azure Security Benchmark - Backup and recovery: https://docs.microsoft.com/azure/security/benchmarks/security-benchmark-v2-backup-recovery
+Azure Well-Architecture Framework - Backup and disaster recover for Azure applications: https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery
+Azure Adoption Framework - business continuity and disaster recovery: https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
   </si>
   <si>
     <t>CIS Controls v7.1 ID(s)</t>
@@ -1549,14 +1564,23 @@
     <t>NIST SP800-53 r4 ID(s)</t>
   </si>
   <si>
-    <t>Guidance</t>
-  </si>
-  <si>
-    <t>Configure your log retention according to your compliance, regulation, and other requirements.
-In Azure Monitor, you can set your Log Analytics workspace retention period according to your organization's compliance regulations. Use Azure Storage, Data Lake or Log Analytics workspace accounts for long-term and archival storage.
-Change the data retention period in Log Analytics: https://docs.microsoft.com/azure/azure-monitor/platform/manage-cost-storage#change-the-data-retention-period
-How to configure retention policy for Azure Storage account logs: https://docs.microsoft.com/azure/storage/common/storage-monitor-storage-account#configure-logging
-Azure Security Center alerts and recommendations export: https://docs.microsoft.com/azure/security-center/continuous-export</t>
+    <t>AC-2, CP-2</t>
+  </si>
+  <si>
+    <t>AC-2, SC-3, SC-7</t>
+  </si>
+  <si>
+    <t>AC-2, AC-3, SC-7</t>
+  </si>
+  <si>
+    <t>AC-2, AC-3, SC-3</t>
+  </si>
+  <si>
+    <t>CM-8, 
+PM-5</t>
+  </si>
+  <si>
+    <t>CM-7, CM-8, PM-55</t>
   </si>
 </sst>
 </file>
@@ -2522,18 +2546,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="39" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="39.140625" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="97.7109375" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="19.5703125" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="58.5703125" customWidth="1" collapsed="1"/>
@@ -2550,358 +2573,358 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>372</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="390" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>371</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>370</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F13" s="34" t="s">
         <v>73</v>
@@ -2910,7 +2933,7 @@
         <v>74</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I13" s="36" t="s">
         <v>75</v>
@@ -2918,10 +2941,10 @@
     </row>
     <row r="14" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
         <v>76</v>
@@ -2930,7 +2953,7 @@
         <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>372</v>
       </c>
       <c r="F14" s="37" t="s">
         <v>78</v>
@@ -2939,7 +2962,7 @@
         <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I14" s="39" t="s">
         <v>80</v>
@@ -2947,10 +2970,10 @@
     </row>
     <row r="15" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
         <v>81</v>
@@ -2959,538 +2982,538 @@
         <v>82</v>
       </c>
       <c r="E15" t="s">
+        <v>373</v>
+      </c>
+      <c r="F15" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="G15" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="42" t="s">
         <v>85</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="42" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="345" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
         <v>87</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>88</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>89</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="G16" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="45" t="s">
         <v>92</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="45" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
         <v>94</v>
       </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="G17" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="47" t="s">
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="48" t="s">
         <v>97</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="48" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" t="s">
         <v>99</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="E18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="49" t="s">
+      <c r="G18" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="50" t="s">
-        <v>102</v>
-      </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I18" s="51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
         <v>103</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>104</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="G19" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="53" t="s">
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="54" t="s">
         <v>107</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="54" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" t="s">
         <v>109</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>110</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="55" t="s">
+      <c r="G20" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="G20" s="56" t="s">
-        <v>113</v>
-      </c>
       <c r="H20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I20" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" t="s">
         <v>114</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>115</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="58" t="s">
+      <c r="G21" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="59" t="s">
-        <v>118</v>
-      </c>
       <c r="H21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I21" s="60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
         <v>119</v>
       </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="F22" s="61" t="s">
+      <c r="G22" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="62" t="s">
-        <v>122</v>
-      </c>
       <c r="H22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I22" s="63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" t="s">
         <v>123</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>124</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>125</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="64" t="s">
+      <c r="G23" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="G23" s="65" t="s">
+      <c r="H23" t="s">
         <v>128</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" s="66" t="s">
         <v>129</v>
-      </c>
-      <c r="I23" s="66" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" t="s">
         <v>131</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>132</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="F24" s="67" t="s">
+      <c r="G24" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="G24" s="68" t="s">
-        <v>135</v>
-      </c>
       <c r="H24" t="s">
+        <v>128</v>
+      </c>
+      <c r="I24" s="69" t="s">
         <v>129</v>
-      </c>
-      <c r="I24" s="69" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" t="s">
         <v>136</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>137</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="F25" s="70" t="s">
+      <c r="G25" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="G25" s="71" t="s">
+      <c r="H25" t="s">
+        <v>128</v>
+      </c>
+      <c r="I25" s="72" t="s">
         <v>140</v>
-      </c>
-      <c r="H25" t="s">
-        <v>129</v>
-      </c>
-      <c r="I25" s="72" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="285" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" t="s">
         <v>142</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>143</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="73" t="s">
+      <c r="G26" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="G26" s="74" t="s">
+      <c r="H26" t="s">
+        <v>128</v>
+      </c>
+      <c r="I26" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="H26" t="s">
-        <v>129</v>
-      </c>
-      <c r="I26" s="75" t="s">
+    </row>
+    <row r="27" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="330" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>148</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>149</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="F27" s="76" t="s">
+      <c r="G27" s="77" t="s">
         <v>151</v>
       </c>
-      <c r="G27" s="77" t="s">
-        <v>152</v>
-      </c>
       <c r="H27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I27" s="78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="375" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" t="s">
         <v>153</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>154</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>155</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="F28" s="79" t="s">
+      <c r="G28" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="G28" s="80" t="s">
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="81" t="s">
         <v>158</v>
-      </c>
-      <c r="H28" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="81" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="405" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" t="s">
         <v>160</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="82" t="s">
         <v>161</v>
       </c>
-      <c r="E29" t="s">
-        <v>156</v>
-      </c>
-      <c r="F29" s="82" t="s">
+      <c r="G29" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="G29" s="83" t="s">
-        <v>163</v>
-      </c>
       <c r="H29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I29" s="84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="345" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" t="s">
         <v>164</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="E30" t="s">
-        <v>156</v>
-      </c>
-      <c r="F30" s="85" t="s">
+      <c r="G30" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="G30" s="86" t="s">
-        <v>167</v>
-      </c>
       <c r="H30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I30" s="87" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" t="s">
         <v>168</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>169</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" s="88" t="s">
         <v>170</v>
       </c>
-      <c r="F31" s="88" t="s">
+      <c r="G31" s="89" t="s">
         <v>171</v>
       </c>
-      <c r="G31" s="89" t="s">
+      <c r="H31" t="s">
+        <v>128</v>
+      </c>
+      <c r="I31" s="90" t="s">
         <v>172</v>
-      </c>
-      <c r="H31" t="s">
-        <v>129</v>
-      </c>
-      <c r="I31" s="90" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" t="s">
         <v>174</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>175</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" s="91" t="s">
         <v>176</v>
       </c>
-      <c r="F32" s="91" t="s">
+      <c r="G32" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="G32" s="92" t="s">
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="93" t="s">
         <v>178</v>
-      </c>
-      <c r="H32" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="93" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" t="s">
+        <v>179</v>
+      </c>
+      <c r="D33" t="s">
         <v>180</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>181</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" s="94" t="s">
         <v>182</v>
       </c>
-      <c r="F33" s="94" t="s">
+      <c r="G33" s="95" t="s">
         <v>183</v>
       </c>
-      <c r="G33" s="95" t="s">
-        <v>373</v>
-      </c>
       <c r="H33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I33" s="96" t="s">
         <v>184</v>
@@ -3498,10 +3521,10 @@
     </row>
     <row r="34" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C34" t="s">
         <v>185</v>
@@ -3519,7 +3542,7 @@
         <v>189</v>
       </c>
       <c r="H34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I34" s="99" t="s">
         <v>190</v>
@@ -3527,7 +3550,7 @@
     </row>
     <row r="35" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
         <v>191</v>
@@ -3548,7 +3571,7 @@
         <v>196</v>
       </c>
       <c r="H35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I35" s="102" t="s">
         <v>197</v>
@@ -3556,7 +3579,7 @@
     </row>
     <row r="36" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
         <v>191</v>
@@ -3577,7 +3600,7 @@
         <v>202</v>
       </c>
       <c r="H36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I36" s="105" t="s">
         <v>203</v>
@@ -3585,7 +3608,7 @@
     </row>
     <row r="37" spans="1:9" ht="285" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
         <v>191</v>
@@ -3606,7 +3629,7 @@
         <v>208</v>
       </c>
       <c r="H37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I37" s="108" t="s">
         <v>197</v>
@@ -3614,7 +3637,7 @@
     </row>
     <row r="38" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
         <v>191</v>
@@ -3635,7 +3658,7 @@
         <v>211</v>
       </c>
       <c r="H38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I38" s="111" t="s">
         <v>197</v>
@@ -3643,7 +3666,7 @@
     </row>
     <row r="39" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
         <v>191</v>
@@ -3664,7 +3687,7 @@
         <v>216</v>
       </c>
       <c r="H39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I39" s="114" t="s">
         <v>197</v>
@@ -3672,7 +3695,7 @@
     </row>
     <row r="40" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
         <v>191</v>
@@ -3693,7 +3716,7 @@
         <v>220</v>
       </c>
       <c r="H40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I40" s="117" t="s">
         <v>197</v>
@@ -3701,7 +3724,7 @@
     </row>
     <row r="41" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
         <v>221</v>
@@ -3722,7 +3745,7 @@
         <v>226</v>
       </c>
       <c r="H41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I41" s="120" t="s">
         <v>227</v>
@@ -3730,7 +3753,7 @@
     </row>
     <row r="42" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
         <v>221</v>
@@ -3751,7 +3774,7 @@
         <v>230</v>
       </c>
       <c r="H42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I42" s="123" t="s">
         <v>227</v>
@@ -3759,7 +3782,7 @@
     </row>
     <row r="43" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
         <v>221</v>
@@ -3780,7 +3803,7 @@
         <v>235</v>
       </c>
       <c r="H43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I43" s="126" t="s">
         <v>227</v>
@@ -3788,10 +3811,10 @@
     </row>
     <row r="44" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>236</v>
@@ -3809,7 +3832,7 @@
         <v>239</v>
       </c>
       <c r="H44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I44" s="129" t="s">
         <v>240</v>
@@ -3817,7 +3840,7 @@
     </row>
     <row r="45" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
         <v>241</v>
@@ -3828,719 +3851,720 @@
       <c r="D45" t="s">
         <v>243</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="204" t="s">
+        <v>374</v>
+      </c>
+      <c r="F45" s="130" t="s">
         <v>244</v>
       </c>
-      <c r="F45" s="130" t="s">
+      <c r="G45" s="131" t="s">
         <v>245</v>
       </c>
-      <c r="G45" s="131" t="s">
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="132" t="s">
         <v>246</v>
-      </c>
-      <c r="H45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" s="132" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="285" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
         <v>241</v>
       </c>
       <c r="C46" t="s">
+        <v>247</v>
+      </c>
+      <c r="D46" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" t="s">
         <v>248</v>
       </c>
-      <c r="D46" t="s">
-        <v>115</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="F46" s="133" t="s">
         <v>249</v>
       </c>
-      <c r="F46" s="133" t="s">
+      <c r="G46" s="134" t="s">
         <v>250</v>
       </c>
-      <c r="G46" s="134" t="s">
-        <v>251</v>
-      </c>
       <c r="H46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I46" s="135" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
         <v>241</v>
       </c>
       <c r="C47" t="s">
+        <v>251</v>
+      </c>
+      <c r="D47" t="s">
         <v>252</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
+        <v>375</v>
+      </c>
+      <c r="F47" s="136" t="s">
         <v>253</v>
       </c>
-      <c r="E47" t="s">
+      <c r="G47" s="137" t="s">
         <v>254</v>
       </c>
-      <c r="F47" s="136" t="s">
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="138" t="s">
         <v>255</v>
-      </c>
-      <c r="G47" s="137" t="s">
-        <v>256</v>
-      </c>
-      <c r="H47" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" s="138" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
         <v>241</v>
       </c>
       <c r="C48" t="s">
+        <v>256</v>
+      </c>
+      <c r="D48" t="s">
+        <v>257</v>
+      </c>
+      <c r="E48" s="204" t="s">
         <v>258</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F48" s="139" t="s">
         <v>259</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G48" s="140" t="s">
         <v>260</v>
       </c>
-      <c r="F48" s="139" t="s">
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="141" t="s">
         <v>261</v>
-      </c>
-      <c r="G48" s="140" t="s">
-        <v>262</v>
-      </c>
-      <c r="H48" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" s="141" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
         <v>241</v>
       </c>
       <c r="C49" t="s">
+        <v>262</v>
+      </c>
+      <c r="D49" t="s">
+        <v>263</v>
+      </c>
+      <c r="E49" t="s">
         <v>264</v>
       </c>
-      <c r="D49" t="s">
+      <c r="F49" s="142" t="s">
         <v>265</v>
       </c>
-      <c r="E49" t="s">
+      <c r="G49" s="143" t="s">
         <v>266</v>
       </c>
-      <c r="F49" s="142" t="s">
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="144" t="s">
         <v>267</v>
-      </c>
-      <c r="G49" s="143" t="s">
-        <v>268</v>
-      </c>
-      <c r="H49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" s="144" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="390" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
         <v>241</v>
       </c>
       <c r="C50" t="s">
+        <v>268</v>
+      </c>
+      <c r="D50" t="s">
+        <v>269</v>
+      </c>
+      <c r="E50" s="204" t="s">
         <v>270</v>
       </c>
-      <c r="D50" t="s">
+      <c r="F50" s="145" t="s">
         <v>271</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G50" s="146" t="s">
         <v>272</v>
       </c>
-      <c r="F50" s="145" t="s">
-        <v>273</v>
-      </c>
-      <c r="G50" s="146" t="s">
-        <v>274</v>
-      </c>
       <c r="H50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I50" s="147" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
+        <v>273</v>
+      </c>
+      <c r="C51" t="s">
+        <v>274</v>
+      </c>
+      <c r="D51" t="s">
         <v>275</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E51" s="204" t="s">
         <v>276</v>
       </c>
-      <c r="D51" t="s">
+      <c r="F51" s="148" t="s">
         <v>277</v>
       </c>
-      <c r="E51" t="s">
+      <c r="G51" s="149" t="s">
         <v>278</v>
       </c>
-      <c r="F51" s="148" t="s">
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="150" t="s">
         <v>279</v>
-      </c>
-      <c r="G51" s="149" t="s">
-        <v>280</v>
-      </c>
-      <c r="H51" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="150" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C52" t="s">
+        <v>280</v>
+      </c>
+      <c r="D52" t="s">
+        <v>281</v>
+      </c>
+      <c r="E52" t="s">
         <v>282</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F52" s="151" t="s">
         <v>283</v>
       </c>
-      <c r="E52" t="s">
+      <c r="G52" s="152" t="s">
         <v>284</v>
       </c>
-      <c r="F52" s="151" t="s">
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="153" t="s">
         <v>285</v>
-      </c>
-      <c r="G52" s="152" t="s">
-        <v>286</v>
-      </c>
-      <c r="H52" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="153" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C53" t="s">
+        <v>286</v>
+      </c>
+      <c r="D53" t="s">
+        <v>287</v>
+      </c>
+      <c r="E53" t="s">
         <v>288</v>
       </c>
-      <c r="D53" t="s">
+      <c r="F53" s="154" t="s">
         <v>289</v>
       </c>
-      <c r="E53" t="s">
+      <c r="G53" s="155" t="s">
         <v>290</v>
       </c>
-      <c r="F53" s="154" t="s">
+      <c r="H53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="156" t="s">
         <v>291</v>
-      </c>
-      <c r="G53" s="155" t="s">
-        <v>292</v>
-      </c>
-      <c r="H53" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" s="156" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C54" t="s">
+        <v>292</v>
+      </c>
+      <c r="D54" t="s">
+        <v>293</v>
+      </c>
+      <c r="E54" t="s">
+        <v>282</v>
+      </c>
+      <c r="F54" s="157" t="s">
         <v>294</v>
       </c>
-      <c r="D54" t="s">
+      <c r="G54" s="158" t="s">
         <v>295</v>
       </c>
-      <c r="E54" t="s">
-        <v>284</v>
-      </c>
-      <c r="F54" s="157" t="s">
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="159" t="s">
         <v>296</v>
-      </c>
-      <c r="G54" s="158" t="s">
-        <v>297</v>
-      </c>
-      <c r="H54" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" s="159" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
+        <v>297</v>
+      </c>
+      <c r="C55" t="s">
+        <v>298</v>
+      </c>
+      <c r="D55" t="s">
         <v>299</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
         <v>300</v>
       </c>
-      <c r="D55" t="s">
+      <c r="F55" s="160" t="s">
         <v>301</v>
       </c>
-      <c r="E55" t="s">
+      <c r="G55" s="161" t="s">
         <v>302</v>
       </c>
-      <c r="F55" s="160" t="s">
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="162" t="s">
         <v>303</v>
-      </c>
-      <c r="G55" s="161" t="s">
-        <v>304</v>
-      </c>
-      <c r="H55" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55" s="162" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C56" t="s">
+        <v>304</v>
+      </c>
+      <c r="D56" t="s">
+        <v>305</v>
+      </c>
+      <c r="E56" t="s">
+        <v>300</v>
+      </c>
+      <c r="F56" s="163" t="s">
         <v>306</v>
       </c>
-      <c r="D56" t="s">
+      <c r="G56" s="164" t="s">
         <v>307</v>
       </c>
-      <c r="E56" t="s">
-        <v>302</v>
-      </c>
-      <c r="F56" s="163" t="s">
-        <v>308</v>
-      </c>
-      <c r="G56" s="164" t="s">
-        <v>309</v>
-      </c>
       <c r="H56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I56" s="165" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="285" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
+        <v>297</v>
+      </c>
+      <c r="C57" t="s">
+        <v>308</v>
+      </c>
+      <c r="D57" t="s">
         <v>299</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E57" t="s">
+        <v>300</v>
+      </c>
+      <c r="F57" s="166" t="s">
+        <v>309</v>
+      </c>
+      <c r="G57" s="167" t="s">
         <v>310</v>
       </c>
-      <c r="D57" t="s">
-        <v>301</v>
-      </c>
-      <c r="E57" t="s">
-        <v>302</v>
-      </c>
-      <c r="F57" s="166" t="s">
-        <v>311</v>
-      </c>
-      <c r="G57" s="167" t="s">
-        <v>312</v>
-      </c>
       <c r="H57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I57" s="168" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C58" t="s">
+        <v>311</v>
+      </c>
+      <c r="D58" t="s">
+        <v>305</v>
+      </c>
+      <c r="E58" t="s">
+        <v>300</v>
+      </c>
+      <c r="F58" s="169" t="s">
+        <v>312</v>
+      </c>
+      <c r="G58" s="170" t="s">
         <v>313</v>
       </c>
-      <c r="D58" t="s">
-        <v>307</v>
-      </c>
-      <c r="E58" t="s">
-        <v>302</v>
-      </c>
-      <c r="F58" s="169" t="s">
-        <v>314</v>
-      </c>
-      <c r="G58" s="170" t="s">
-        <v>315</v>
-      </c>
       <c r="H58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I58" s="171" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C59" t="s">
+        <v>314</v>
+      </c>
+      <c r="D59" t="s">
+        <v>315</v>
+      </c>
+      <c r="E59" t="s">
+        <v>300</v>
+      </c>
+      <c r="F59" s="172" t="s">
         <v>316</v>
       </c>
-      <c r="D59" t="s">
+      <c r="G59" s="173" t="s">
         <v>317</v>
       </c>
-      <c r="E59" t="s">
-        <v>302</v>
-      </c>
-      <c r="F59" s="172" t="s">
-        <v>318</v>
-      </c>
-      <c r="G59" s="173" t="s">
-        <v>319</v>
-      </c>
       <c r="H59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I59" s="174" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="345" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C60" t="s">
+        <v>318</v>
+      </c>
+      <c r="D60" t="s">
+        <v>319</v>
+      </c>
+      <c r="E60" t="s">
         <v>320</v>
       </c>
-      <c r="D60" t="s">
+      <c r="F60" s="175" t="s">
         <v>321</v>
       </c>
-      <c r="E60" t="s">
+      <c r="G60" s="176" t="s">
         <v>322</v>
       </c>
-      <c r="F60" s="175" t="s">
-        <v>323</v>
-      </c>
-      <c r="G60" s="176" t="s">
-        <v>324</v>
-      </c>
       <c r="H60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I60" s="177" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="285" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C61" t="s">
+        <v>323</v>
+      </c>
+      <c r="D61" t="s">
+        <v>324</v>
+      </c>
+      <c r="E61" t="s">
         <v>325</v>
       </c>
-      <c r="D61" t="s">
+      <c r="F61" s="178" t="s">
         <v>326</v>
       </c>
-      <c r="E61" t="s">
+      <c r="G61" s="179" t="s">
         <v>327</v>
       </c>
-      <c r="F61" s="178" t="s">
-        <v>328</v>
-      </c>
-      <c r="G61" s="179" t="s">
-        <v>329</v>
-      </c>
       <c r="H61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I61" s="180" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C62" t="s">
+        <v>328</v>
+      </c>
+      <c r="D62" t="s">
+        <v>329</v>
+      </c>
+      <c r="E62" t="s">
         <v>330</v>
       </c>
-      <c r="D62" t="s">
+      <c r="F62" s="181" t="s">
         <v>331</v>
       </c>
-      <c r="E62" t="s">
+      <c r="G62" s="182" t="s">
         <v>332</v>
       </c>
-      <c r="F62" s="181" t="s">
-        <v>333</v>
-      </c>
-      <c r="G62" s="182" t="s">
-        <v>334</v>
-      </c>
       <c r="H62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I62" s="183" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
+        <v>333</v>
+      </c>
+      <c r="C63" t="s">
+        <v>334</v>
+      </c>
+      <c r="D63" t="s">
         <v>335</v>
       </c>
-      <c r="C63" t="s">
+      <c r="E63" t="s">
         <v>336</v>
       </c>
-      <c r="D63" t="s">
+      <c r="F63" s="184" t="s">
         <v>337</v>
       </c>
-      <c r="E63" t="s">
+      <c r="G63" s="185" t="s">
         <v>338</v>
       </c>
-      <c r="F63" s="184" t="s">
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" s="186" t="s">
         <v>339</v>
-      </c>
-      <c r="G63" s="185" t="s">
-        <v>340</v>
-      </c>
-      <c r="H63" t="s">
-        <v>13</v>
-      </c>
-      <c r="I63" s="186" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C64" t="s">
+        <v>340</v>
+      </c>
+      <c r="D64" t="s">
+        <v>341</v>
+      </c>
+      <c r="E64" t="s">
         <v>342</v>
       </c>
-      <c r="D64" t="s">
+      <c r="F64" s="187" t="s">
         <v>343</v>
       </c>
-      <c r="E64" t="s">
+      <c r="G64" s="188" t="s">
         <v>344</v>
       </c>
-      <c r="F64" s="187" t="s">
-        <v>345</v>
-      </c>
-      <c r="G64" s="188" t="s">
-        <v>346</v>
-      </c>
       <c r="H64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I64" s="189" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C65" t="s">
+        <v>345</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" t="s">
+        <v>346</v>
+      </c>
+      <c r="F65" s="190" t="s">
         <v>347</v>
       </c>
-      <c r="D65" t="s">
-        <v>16</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="G65" s="191" t="s">
         <v>348</v>
       </c>
-      <c r="F65" s="190" t="s">
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" s="192" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="360" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>333</v>
+      </c>
+      <c r="C66" t="s">
         <v>349</v>
       </c>
-      <c r="G65" s="191" t="s">
+      <c r="D66" t="s">
         <v>350</v>
       </c>
-      <c r="H65" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" s="192" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="315" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66" t="s">
-        <v>335</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="E66" t="s">
         <v>351</v>
       </c>
-      <c r="D66" t="s">
+      <c r="F66" s="193" t="s">
         <v>352</v>
       </c>
-      <c r="E66" t="s">
+      <c r="G66" s="194" t="s">
         <v>353</v>
       </c>
-      <c r="F66" s="193" t="s">
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="195" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="375" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>333</v>
+      </c>
+      <c r="C67" t="s">
         <v>354</v>
       </c>
-      <c r="G66" s="194" t="s">
+      <c r="D67" t="s">
         <v>355</v>
       </c>
-      <c r="H66" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" s="195" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="330" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67" t="s">
-        <v>335</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="E67" t="s">
         <v>356</v>
       </c>
-      <c r="D67" t="s">
+      <c r="F67" s="196" t="s">
         <v>357</v>
       </c>
-      <c r="E67" t="s">
+      <c r="G67" s="197" t="s">
         <v>358</v>
       </c>
-      <c r="F67" s="196" t="s">
-        <v>359</v>
-      </c>
-      <c r="G67" s="197" t="s">
-        <v>360</v>
-      </c>
       <c r="H67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I67" s="198" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C68" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D68" t="s">
         <v>193</v>
       </c>
       <c r="E68" t="s">
+        <v>360</v>
+      </c>
+      <c r="F68" s="199" t="s">
+        <v>361</v>
+      </c>
+      <c r="G68" s="200" t="s">
         <v>362</v>
       </c>
-      <c r="F68" s="199" t="s">
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="201" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>333</v>
+      </c>
+      <c r="C69" t="s">
         <v>363</v>
       </c>
-      <c r="G68" s="200" t="s">
+      <c r="D69" t="s">
         <v>364</v>
       </c>
-      <c r="H68" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" s="201" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="255" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" t="s">
-        <v>335</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="E69" t="s">
         <v>365</v>
       </c>
-      <c r="D69" t="s">
+      <c r="F69" s="202" t="s">
         <v>366</v>
       </c>
-      <c r="E69" t="s">
+      <c r="G69" s="203" t="s">
         <v>367</v>
       </c>
-      <c r="F69" s="202" t="s">
-        <v>368</v>
-      </c>
-      <c r="G69" s="203" t="s">
-        <v>369</v>
-      </c>
       <c r="H69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I69" s="204" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I69" xr:uid="{7E4E20BE-EF5D-4ED3-A5F4-B9DCB1350040}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
